--- a/高频成语/言语真题高频成语.xlsx
+++ b/高频成语/言语真题高频成语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19520" windowHeight="13000"/>
+    <workbookView windowWidth="22560" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,105 +14,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>十年真题成语频率排名</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">盛行泛滥
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⭐️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⭐️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⭐️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⭐️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>⭐️</t>
-    </r>
+    <t>盛行泛滥
+⭐️ ⭐️ ⭐️ ⭐️ ⭐️</t>
   </si>
   <si>
     <t>大行其道</t>
+  </si>
+  <si>
+    <t>新潮事物流行，成为一种风尚</t>
+  </si>
+  <si>
+    <t>甚嚣尘上</t>
+  </si>
+  <si>
+    <t>某种言论盛行，十分嚣张（多指传闻或谬论）</t>
+  </si>
+  <si>
+    <t>风靡全球</t>
+  </si>
+  <si>
+    <t>事物在整个世界很风行</t>
+  </si>
+  <si>
+    <t>泛滥成灾</t>
+  </si>
+  <si>
+    <t>不好的文章或思想到处传播，影响极坏</t>
+  </si>
+  <si>
+    <t>风靡一时</t>
+  </si>
+  <si>
+    <t>一个事物在一个时期非常盛行</t>
+  </si>
+  <si>
+    <t>蔚然成风</t>
+  </si>
+  <si>
+    <t>一件事逐渐盛行形成一种风气（多指好的）</t>
+  </si>
+  <si>
+    <t>炙手可热</t>
+  </si>
+  <si>
+    <t>炙手可热：气焰盛、权势大，使人不敢靠近</t>
+  </si>
+  <si>
+    <t>脍炙人口</t>
+  </si>
+  <si>
+    <t>好的诗文受到人们的称赞传颂</t>
+  </si>
+  <si>
+    <t>少
+⭐️ ⭐️ ⭐️ ⭐️ ⭐️</t>
+  </si>
+  <si>
+    <t>寥寥无几</t>
+  </si>
+  <si>
+    <t>数量稀少，没有几个</t>
+  </si>
+  <si>
+    <t>凤毛麟角</t>
+  </si>
+  <si>
+    <t>珍贵而稀少的人或物</t>
+  </si>
+  <si>
+    <t>屈指可数</t>
+  </si>
+  <si>
+    <t>数量稀少</t>
+  </si>
+  <si>
+    <t>少之又少</t>
+  </si>
+  <si>
+    <t>很少，几乎没有</t>
   </si>
 </sst>
 </file>
@@ -120,12 +104,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,7 +118,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -155,6 +139,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -164,44 +156,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,53 +171,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -284,10 +261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -305,25 +283,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,49 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,109 +461,65 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,7 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,22 +545,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,21 +575,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -590,157 +605,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,10 +778,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,6 +862,24 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1078,51 +1147,268 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.4642857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3928571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.6071428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.3303571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4642857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.9553571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="9" spans="11:11">
-      <c r="K9" s="5"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="2:4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:D3">
+    <cfRule type="expression" priority="8">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" priority="12">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D4">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>$B5&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" priority="10">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11">
+      <formula>$B7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="expression" priority="23">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28">
+      <formula>$B10&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29">
+      <formula>$B10&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="31">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D3 C6:D7 C10:D10 B4:B10 D8:D9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D2 D9:D14 B9:B10 C10:C14">
+    <cfRule type="expression" priority="2">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D2 D9:D17 B9:B10 B17 C10:C17">
+    <cfRule type="expression" priority="4">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D3 C6:D7 C10:D1048576 B4:B10 B17:B1048576 D8:D9">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$B1&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$B1&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7">
+      <formula>$B1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D3 C6:D7 C10:D12 B4:B10 D8:D9">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$B2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8 B8 B7:D7">
+    <cfRule type="expression" priority="21">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22">
+      <formula>$B9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
